--- a/POTUS.xlsx
+++ b/POTUS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\POTUS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF1C99-48C9-40A7-82F3-1BD5C609B322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POTUS" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="145">
   <si>
     <t>POTUS_SEQ</t>
   </si>
@@ -434,14 +440,29 @@
   </si>
   <si>
     <t>Hussein</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R </t>
+  </si>
+  <si>
+    <t>Biden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -923,7 +944,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -975,6 +996,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1022,7 +1046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,9 +1079,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,6 +1131,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1265,11 +1323,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,6 +2321,49 @@
         <v>82</v>
       </c>
     </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="1">
+        <v>42755</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44216</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44216</v>
+      </c>
+      <c r="G47" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
